--- a/medicine/Sexualité et sexologie/La_piel_que_habito/La_piel_que_habito.xlsx
+++ b/medicine/Sexualité et sexologie/La_piel_que_habito/La_piel_que_habito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Piel Que Habito[1] (espagnol: littéralement, «La Peau Que J'Habite») est un film d'horreur et suspense psychologique mélodramatique coécrit, coproduit et réalisé par Pedro Almodóvar, sorti en 2011. Il s’agit de l’adaptation du roman Mygale de l'écrivain français Thierry Jonquet.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Piel Que Habito (espagnol: littéralement, «La Peau Que J'Habite») est un film d'horreur et suspense psychologique mélodramatique coécrit, coproduit et réalisé par Pedro Almodóvar, sorti en 2011. Il s’agit de l’adaptation du roman Mygale de l'écrivain français Thierry Jonquet.
 Le film fait partie de la sélection officielle du 64e festival de Cannes en 2011.
 </t>
         </is>
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accroche
-Robert Ledgard, un chirurgien esthétique, met au point une peau synthétique, technique révolutionnaire qui conforte sa réputation. Mais il garde le secret sur les tests qu'il a menés sur une femme cobaye, Vera, qui vit enfermée dans son manoir dans la région de Tolède. La relation entre le médecin et sa patiente est trouble et mal vue de la seule personne à détenir le secret : Marilia, la fidèle servante du chirurgien.
-Synopsis détaillé
-L'action se passe en 2012. Un éminent chirurgien esthétique, Robert Ledgard tente depuis douze ans de créer une peau synthétique qui aurait pu sauver son épouse, grièvement brûlée. Il réussit à créer un épiderme viable qui apparaît être d'une formidable résistance face aux agressions extérieures : piqûres de moustiques, brûlures… Néanmoins, comme tout scientifique, le docteur Ledgard a besoin d'un cobaye. Il s’agit de sa dévouée patiente Vera, qu'il détient captive dans une chambre de son manoir, dans la région de Tolède. Seule Marilia, la servante du médecin, est au courant de cette relation qu'elle voit d'un mauvais œil.
+          <t>Accroche</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Ledgard, un chirurgien esthétique, met au point une peau synthétique, technique révolutionnaire qui conforte sa réputation. Mais il garde le secret sur les tests qu'il a menés sur une femme cobaye, Vera, qui vit enfermée dans son manoir dans la région de Tolède. La relation entre le médecin et sa patiente est trouble et mal vue de la seule personne à détenir le secret : Marilia, la fidèle servante du chirurgien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>La_piel_que_habito</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_piel_que_habito</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'action se passe en 2012. Un éminent chirurgien esthétique, Robert Ledgard tente depuis douze ans de créer une peau synthétique qui aurait pu sauver son épouse, grièvement brûlée. Il réussit à créer un épiderme viable qui apparaît être d'une formidable résistance face aux agressions extérieures : piqûres de moustiques, brûlures… Néanmoins, comme tout scientifique, le docteur Ledgard a besoin d'un cobaye. Il s’agit de sa dévouée patiente Vera, qu'il détient captive dans une chambre de son manoir, dans la région de Tolède. Seule Marilia, la servante du médecin, est au courant de cette relation qu'elle voit d'un mauvais œil.
 Un soir de carnaval où Robert est absent, Zeca, le fils de Marilia, arrive pour se cacher dans la maison : il a été reconnu sur la vidéo d'un cambriolage et veut échapper à la police. Marilia accepte de l'aider temporairement. Zeca remarque Vera sur les images de vidéo-surveillance du manoir et croit reconnaître la femme de Ledgard, qui fut son amante avant sa mort. Zeca ligote alors sa mère et entre dans la chambre de la femme pour la violer. Quand Robert rentre chez lui, il les surprend et tue Zeca d'une balle. Il part se débarrasser du corps, laissant Marilia et Vera seules au manoir.
 Marilia commence alors à se confier : elle est la mère biologique de Robert, bien qu'il l'ignore. Des années auparavant, Zeca a eu une liaison avec la femme de Robert ; ensemble, ils ont tenté de fuir, mais ont eu un grave accident de voiture. Zeca a pu en réchapper et s'enfuir mais la femme de Robert a brûlé vive dans la voiture. Sauvée in extremis, elle a survécu plusieurs mois avant de se défenestrer en surprenant son reflet dans une vitre. Norma, sa fille, a été témoin de la scène et a alors sombré dans une grande détresse psychologique.
 Deux flashbacks expliquent ensuite ce qui s'est passé en 2006 : Robert choisit de se faire accompagner de sa fille, encore fragile, à un mariage. Cette dernière croise du regard Vicente, un séduisant styliste dépendant aux médicaments. Les deux jeunes se plaisent, mais quand Vicente tente de coucher avec elle dans le parc du château, Norma s'affole et Vicente la frappe et l'assomme par accident. Pris de panique, Vicente s’enfuit mais Robert est témoin de la scène. Norma sombre à nouveau dans la dépression et retourne en hôpital psychiatrique. Robert kidnappe alors Vicente et le retient prisonnier dans une cave jusqu'au jour où Norma se suicide. La vengeance de Robert commence alors lentement : il fait subir à Vicente contre son gré de multiples opérations chirurgicales pour lui faire changer de sexe et le transformer en sosie parfait de sa femme.
@@ -527,36 +579,38 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>La_piel_que_habito</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_piel_que_habito</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : La piel que habito
 Titre en anglais : The Skin I Live In
 Réalisation : Pedro Almodóvar
-Scénario : Pedro Almodóvar et Agustin Almodovar[2], d’après le roman Mygale de Thierry Jonquet
+Scénario : Pedro Almodóvar et Agustin Almodovar, d’après le roman Mygale de Thierry Jonquet
 Musique : Alberto Iglesias
 Décors : Antxon Gómez
 Costumes : Jean-Paul Gaultier
@@ -575,31 +629,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>La_piel_que_habito</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_piel_que_habito</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Antonio Banderas (VF : Bernard Gabay) : Dr Robert Ledgard
@@ -619,42 +675,82 @@
 Studio de doublage : Dubbing Brothers
 Direction artistique : Isabelle Brannens
 Adaptation : Françoise Monier et Nelson Calderon
-Source et légende : Fiche doublage (VF) sur Allo Doublage[3]</t>
+Source et légende : Fiche doublage (VF) sur Allo Doublage</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>La_piel_que_habito</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_piel_que_habito</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Genèse et développement
-Le film est une adaption du roman Mygale de l'écrivain français Thierry Jonquet.
-Pedro Almodóvar a cité le film Les Yeux sans visage de Georges Franju (1962) comme influence majeure pour La piel que habito. Il dit par exemple dans une interview[4] : « J’avais en tête Les yeux sans visage de Georges Franju pendant que j’écrivais le film et aussi quand j’ai commencé à penser au tournage. Je crois que, probablement, si on veut parler de référence à un autre film, l’unique référence claire et concrète était précisément ce film, Les yeux sans visage, que je connais par cœur ».
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est une adaption du roman Mygale de l'écrivain français Thierry Jonquet.
+Pedro Almodóvar a cité le film Les Yeux sans visage de Georges Franju (1962) comme influence majeure pour La piel que habito. Il dit par exemple dans une interview : « J’avais en tête Les yeux sans visage de Georges Franju pendant que j’écrivais le film et aussi quand j’ai commencé à penser au tournage. Je crois que, probablement, si on veut parler de référence à un autre film, l’unique référence claire et concrète était précisément ce film, Les yeux sans visage, que je connais par cœur ».
 Le film serait aussi inspiré du conte Véra tiré des Contes cruels de Villiers de l'Isle-Adam[réf. nécessaire].
-Musique
-La musique originale est composée par Alberto Iglesias[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_piel_que_habito</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_piel_que_habito</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La musique originale est composée par Alberto Iglesias.
 Des extraits musicaux sont aussi inclus dans le film :
 Between The Bars de Chris Garneau.
 Shades of Marble de Trentemøller.
@@ -662,31 +758,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>La_piel_que_habito</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_piel_que_habito</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Festival de Cannes 2011
 Présenté en compétition pour la Palme d'or
